--- a/biology/Zoologie/Colonus_puerperus/Colonus_puerperus.xlsx
+++ b/biology/Zoologie/Colonus_puerperus/Colonus_puerperus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colonus puerperus est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colonus puerperus est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Amérique du Nord[1]. Elle se rencontre sux États-Unis au Minnesota, en Indiana, en Illinois, au Kansas, au Missouri, en Oklahoma, au Texas, en Arkansas, en Alabama, en Floride, en Géorgie, en Caroline du Sud, en Caroline du Nord, au Maryland, au New Jersey et en Pennsylvanie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Amérique du Nord. Elle se rencontre sux États-Unis au Minnesota, en Indiana, en Illinois, au Kansas, au Missouri, en Oklahoma, au Texas, en Arkansas, en Alabama, en Floride, en Géorgie, en Caroline du Sud, en Caroline du Nord, au Maryland, au New Jersey et en Pennsylvanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve habituellement dans les endroits herbeux[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve habituellement dans les endroits herbeux. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Richman et Vetter en 2004 mesure 7,2 mm et la femelle 8,4 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Richman et Vetter en 2004 mesure 7,2 mm et la femelle 8,4 mm.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hentz, 1846 : Descriptions and figures of the araneides of the United States. Boston journal of natural history, vol. 5, p. 352-370 (texte intégral).</t>
         </is>
